--- a/LF/PreTAS/Benin/bj_lf_pretas_1_site_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_1_site_202009.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA414F6-40F9-4A98-A670-9E6FE428E2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59492869-3996-49E1-BA17-C2881BD52EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="119">
   <si>
     <t>form_title</t>
   </si>
@@ -260,75 +261,27 @@
     <t>${c_consent} = 'No'</t>
   </si>
   <si>
-    <t>bj_lf_pretas_1_site_202009</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
-    <t>Covè</t>
-  </si>
-  <si>
     <t>Ouinhi</t>
   </si>
   <si>
     <t>Zagnanado</t>
   </si>
   <si>
-    <t>Zakpota</t>
-  </si>
-  <si>
     <t>Sélectionner la commune</t>
   </si>
   <si>
-    <t>Dékpada</t>
-  </si>
-  <si>
-    <t>Voli</t>
-  </si>
-  <si>
-    <t>Azonwolli</t>
-  </si>
-  <si>
-    <t>Gnanli</t>
-  </si>
-  <si>
-    <t>Ganhounmè</t>
-  </si>
-  <si>
-    <t>Tévèdji</t>
-  </si>
-  <si>
-    <t>Kpoto</t>
-  </si>
-  <si>
     <t>Goblidji</t>
   </si>
   <si>
-    <t>Lontonkpa</t>
-  </si>
-  <si>
-    <t>Adamè</t>
-  </si>
-  <si>
     <t>Adjido</t>
   </si>
   <si>
-    <t>Dekpada</t>
-  </si>
-  <si>
     <t>Cove</t>
   </si>
   <si>
-    <t>Ganhounme</t>
-  </si>
-  <si>
-    <t>Tevedji</t>
-  </si>
-  <si>
-    <t>Adame</t>
-  </si>
-  <si>
     <t>district_list = ${c_district}</t>
   </si>
   <si>
@@ -359,14 +312,89 @@
     <t>. &gt; 99 and . &lt; 1000</t>
   </si>
   <si>
-    <t>(Septembre 2020) 1. Benin - Pre TAS FL Fromulaire Site</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>Arrondissement</t>
+  </si>
+  <si>
+    <t>Za-Kpota</t>
+  </si>
+  <si>
+    <t>Kpozoun</t>
+  </si>
+  <si>
+    <t>Kpakpassa</t>
+  </si>
+  <si>
+    <t>Za-Agbokpa</t>
+  </si>
+  <si>
+    <t>Don-Tan</t>
+  </si>
+  <si>
+    <t>Baname</t>
+  </si>
+  <si>
+    <t>Dasso</t>
+  </si>
+  <si>
+    <t>Aizando</t>
+  </si>
+  <si>
+    <t>Hounkpa</t>
+  </si>
+  <si>
+    <t>Ouinhi centre</t>
+  </si>
+  <si>
+    <t>Mafongou</t>
+  </si>
+  <si>
+    <t>Adogbe</t>
+  </si>
+  <si>
+    <t>Lainta-Cogbe</t>
+  </si>
+  <si>
+    <t>Dangbehonou</t>
+  </si>
+  <si>
+    <t>Gounli</t>
+  </si>
+  <si>
+    <t>Kpagoudo</t>
+  </si>
+  <si>
+    <t>Code Village</t>
+  </si>
+  <si>
+    <t>Village selectionne</t>
+  </si>
+  <si>
+    <t>Aissinhoue</t>
+  </si>
+  <si>
+    <t>Dangbehoue</t>
+  </si>
+  <si>
+    <t>Zounsego</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 1. Benin - Pre TAS FL Fromulaire Site V2</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_1_site_202009_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,16 +448,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -452,13 +512,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -492,6 +628,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -874,7 +1031,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>68</v>
@@ -903,7 +1060,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -934,7 +1091,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -948,15 +1105,15 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -968,7 +1125,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>54</v>
@@ -984,7 +1141,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -999,7 +1156,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1027,7 +1184,7 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F7" s="10"/>
       <c r="M7" s="4" t="s">
@@ -1135,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1175,13 +1332,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1189,13 +1346,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1203,13 +1360,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1217,13 +1374,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1231,16 +1388,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1248,16 +1405,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1265,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1282,16 +1439,16 @@
         <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1299,16 +1456,16 @@
         <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1316,16 +1473,16 @@
         <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1333,16 +1490,16 @@
         <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1350,16 +1507,16 @@
         <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1367,16 +1524,16 @@
         <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1384,16 +1541,16 @@
         <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1401,268 +1558,636 @@
         <v>51</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="7">
-        <v>101</v>
-      </c>
-      <c r="C17" s="7">
-        <v>101</v>
-      </c>
-      <c r="D17" s="7">
-        <v>101</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>94</v>
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7">
         <v>101</v>
       </c>
-      <c r="B18" s="7">
-        <v>102</v>
-      </c>
       <c r="C18" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B19" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B20" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B21" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B22" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B23" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B24" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B26" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B27" s="7">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7">
+        <v>110</v>
+      </c>
+      <c r="D27" s="7">
+        <v>110</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="7">
         <v>111</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="7">
         <v>111</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>111</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="F28" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="7">
+        <v>112</v>
+      </c>
+      <c r="C29" s="7">
+        <v>112</v>
+      </c>
+      <c r="D29" s="7">
+        <v>112</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:C89">
-    <sortCondition ref="B44:B89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C91">
+    <sortCondition ref="B46:B91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0B476-EF0B-4C23-B456-A68333306B40}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="16">
+        <v>101</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="16">
+        <v>102</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="16">
+        <v>103</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="16">
+        <v>104</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="16">
+        <v>105</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="16">
+        <v>106</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="16">
+        <v>107</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="16">
+        <v>108</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="16">
+        <v>109</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="16">
+        <v>110</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="16">
+        <v>111</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="16">
+        <v>112</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K13">
+    <sortCondition ref="K2:K13"/>
+    <sortCondition ref="J2:J13"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1688,16 +2213,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>20200907</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2">
-        <v>20200904</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Benin/bj_lf_pretas_1_site_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_1_site_202009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59492869-3996-49E1-BA17-C2881BD52EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC895AE-2FCD-4675-9BB6-76AB7EAD506F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,10 @@
     <t>Zounsego</t>
   </si>
   <si>
-    <t>(Septembre 2020) 1. Benin - Pre TAS FL Fromulaire Site V2</t>
-  </si>
-  <si>
-    <t>bj_lf_pretas_1_site_202009_v2</t>
+    <t>(Septembre 2020) 1. Benin - Pre TAS FL Fromulaire Site V3</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_1_site_202009_v3</t>
   </si>
 </sst>
 </file>
@@ -634,19 +634,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,11 +933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1895,274 +1895,274 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>101</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>102</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>103</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>104</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>105</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>106</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>107</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>108</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>109</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>110</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>111</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>112</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2219,7 +2219,7 @@
         <v>118</v>
       </c>
       <c r="C2">
-        <v>20200907</v>
+        <v>20200917</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>

--- a/LF/PreTAS/Benin/bj_lf_pretas_1_site_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_1_site_202009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC895AE-2FCD-4675-9BB6-76AB7EAD506F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D407129-EB11-4A01-9BB6-68E72E33D3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -351,9 +351,6 @@
     <t>Ouinhi centre</t>
   </si>
   <si>
-    <t>Mafongou</t>
-  </si>
-  <si>
     <t>Adogbe</t>
   </si>
   <si>
@@ -384,10 +381,13 @@
     <t>Zounsego</t>
   </si>
   <si>
-    <t>(Septembre 2020) 1. Benin - Pre TAS FL Fromulaire Site V3</t>
-  </si>
-  <si>
     <t>bj_lf_pretas_1_site_202009_v3</t>
+  </si>
+  <si>
+    <t>Mafougbon</t>
+  </si>
+  <si>
+    <t>1. Benin - Pre TAS FL Fromulaire Site</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1296,7 +1296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E17"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1405,13 +1405,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>78</v>
@@ -1439,13 +1439,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>82</v>
@@ -1456,13 +1456,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>78</v>
@@ -1507,13 +1507,13 @@
         <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>82</v>
@@ -1541,13 +1541,13 @@
         <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>77</v>
@@ -1575,13 +1575,13 @@
         <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>82</v>
@@ -1669,7 +1669,7 @@
         <v>105</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>106</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>109</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>110</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
         <v>111</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>112</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,10 +1879,10 @@
         <v>95</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>94</v>
@@ -1891,7 +1891,7 @@
         <v>94</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
         <v>78</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>82</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="15">
         <v>105</v>
@@ -2012,7 +2012,7 @@
         <v>78</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2024,7 +2024,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="15">
         <v>106</v>
@@ -2077,7 +2077,7 @@
         <v>82</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E10" s="15">
         <v>109</v>
@@ -2109,10 +2109,10 @@
         <v>82</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="15">
         <v>110</v>
@@ -2121,7 +2121,7 @@
         <v>77</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2130,10 +2130,10 @@
         <v>82</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="E12" s="15">
         <v>111</v>
@@ -2151,10 +2151,10 @@
         <v>82</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="E13" s="15">
         <v>112</v>
@@ -2163,7 +2163,7 @@
         <v>82</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2186,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2">
-        <v>20200917</v>
+        <v>20200925</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
